--- a/ig/nr-update-annuaire/all-profiles.xlsx
+++ b/ig/nr-update-annuaire/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:12:57+00:00</t>
+    <t>2024-02-07T14:21:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire/all-profiles.xlsx
+++ b/ig/nr-update-annuaire/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:21:35+00:00</t>
+    <t>2024-02-07T14:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire/all-profiles.xlsx
+++ b/ig/nr-update-annuaire/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:23:50+00:00</t>
+    <t>2024-02-07T15:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1747,7 +1747,7 @@
     <t>Bundle.entry:Organization.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {http://interopsante.org/fhir/StructureDefinition/FrOrganization}
+    <t xml:space="preserve">Organization {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization}
 </t>
   </si>
   <si>

--- a/ig/nr-update-annuaire/all-profiles.xlsx
+++ b/ig/nr-update-annuaire/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T15:08:37+00:00</t>
+    <t>2024-02-07T15:59:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
